--- a/simulation_data/iterative_algorithm/i_error_level_10_percent_water_40.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_10_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>88.90256303932648</v>
+        <v>87.40322247978528</v>
       </c>
       <c r="D2" t="n">
-        <v>12.72892462103166</v>
+        <v>12.46700168980151</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.93552557096818</v>
+        <v>87.80885704058171</v>
       </c>
       <c r="D3" t="n">
-        <v>12.37516304766162</v>
+        <v>10.67107215161134</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.05896811743187</v>
+        <v>86.39874425591779</v>
       </c>
       <c r="D4" t="n">
-        <v>13.1971400117006</v>
+        <v>12.55562305648686</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.73569803610967</v>
+        <v>86.76427776979259</v>
       </c>
       <c r="D5" t="n">
-        <v>14.57311790113869</v>
+        <v>12.14615469196785</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>84.65745520306979</v>
+        <v>85.19654260870435</v>
       </c>
       <c r="D6" t="n">
-        <v>12.97272977729772</v>
+        <v>12.58007129853856</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.224646538486</v>
+        <v>83.93764447617787</v>
       </c>
       <c r="D7" t="n">
-        <v>12.95889983554984</v>
+        <v>13.49990310193283</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.31898081796614</v>
+        <v>81.08813473530982</v>
       </c>
       <c r="D8" t="n">
-        <v>11.08643185986473</v>
+        <v>12.83002787690936</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>81.32133643280568</v>
+        <v>82.47516919004505</v>
       </c>
       <c r="D9" t="n">
-        <v>12.37847957534691</v>
+        <v>12.95554401371433</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.3684658280462</v>
+        <v>83.68657294922235</v>
       </c>
       <c r="D10" t="n">
-        <v>13.75262572771429</v>
+        <v>11.77284890633958</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>79.93709271400851</v>
+        <v>78.14947421021647</v>
       </c>
       <c r="D11" t="n">
-        <v>13.18753154894324</v>
+        <v>12.75622634299795</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.27856687367506</v>
+        <v>79.01447216441218</v>
       </c>
       <c r="D12" t="n">
-        <v>11.5441164030165</v>
+        <v>13.69691496791633</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.02121770020602</v>
+        <v>78.11039293014396</v>
       </c>
       <c r="D13" t="n">
-        <v>11.47248209422864</v>
+        <v>13.30766615622661</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.57625463029007</v>
+        <v>76.24549898935595</v>
       </c>
       <c r="D14" t="n">
-        <v>12.51687067907705</v>
+        <v>12.69801194363046</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.43049338495705</v>
+        <v>78.11882838066482</v>
       </c>
       <c r="D15" t="n">
-        <v>11.57239915191093</v>
+        <v>12.06119910875491</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.92157060308602</v>
+        <v>75.7618941233905</v>
       </c>
       <c r="D16" t="n">
-        <v>11.73771837888997</v>
+        <v>11.40065939887542</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>73.12368802658386</v>
+        <v>73.87588725262734</v>
       </c>
       <c r="D17" t="n">
-        <v>14.6908262112693</v>
+        <v>12.76775665052967</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>71.11788911308722</v>
+        <v>71.50152062445804</v>
       </c>
       <c r="D18" t="n">
-        <v>12.11403002219948</v>
+        <v>12.62155861647166</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.83254864519473</v>
+        <v>70.70134022762802</v>
       </c>
       <c r="D19" t="n">
-        <v>14.32291172606995</v>
+        <v>12.79796140935477</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>70.24049370389004</v>
+        <v>74.92288612361671</v>
       </c>
       <c r="D20" t="n">
-        <v>12.87984786862241</v>
+        <v>11.60963839416497</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.78295012985431</v>
+        <v>69.19854846835693</v>
       </c>
       <c r="D21" t="n">
-        <v>12.76049714907255</v>
+        <v>13.02445769794695</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.81783429059146</v>
+        <v>67.8811806559049</v>
       </c>
       <c r="D22" t="n">
-        <v>11.75019184363805</v>
+        <v>11.89196048180729</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>65.89537524530056</v>
+        <v>68.68087605987768</v>
       </c>
       <c r="D23" t="n">
-        <v>13.00875377839659</v>
+        <v>12.55668239858208</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>66.41057559304595</v>
+        <v>67.96025615613937</v>
       </c>
       <c r="D24" t="n">
-        <v>12.79075225753316</v>
+        <v>14.53394861788839</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.69195755295721</v>
+        <v>67.51363440135646</v>
       </c>
       <c r="D25" t="n">
-        <v>13.03435524259125</v>
+        <v>13.7641378756308</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.69143075660416</v>
+        <v>65.0298034603733</v>
       </c>
       <c r="D26" t="n">
-        <v>11.41755229889388</v>
+        <v>13.18409869779118</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.88565780555649</v>
+        <v>65.72593664605103</v>
       </c>
       <c r="D27" t="n">
-        <v>11.73463535877279</v>
+        <v>11.60670959183535</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.13031247637679</v>
+        <v>63.3349407633692</v>
       </c>
       <c r="D28" t="n">
-        <v>12.60212384702796</v>
+        <v>14.16377420296745</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>59.65585047899744</v>
+        <v>62.12388387040584</v>
       </c>
       <c r="D29" t="n">
-        <v>12.80845496345095</v>
+        <v>13.08552509431358</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>57.15459222582343</v>
+        <v>62.08488501712112</v>
       </c>
       <c r="D30" t="n">
-        <v>14.9704242653313</v>
+        <v>11.19463815680788</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.72001199749189</v>
+        <v>60.43418902763535</v>
       </c>
       <c r="D31" t="n">
-        <v>13.09349234526703</v>
+        <v>14.11828254514015</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>62.00091958523026</v>
+        <v>59.19802831326684</v>
       </c>
       <c r="D32" t="n">
-        <v>13.95624897109011</v>
+        <v>11.45588402247019</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>56.85503090754817</v>
+        <v>60.21191343337497</v>
       </c>
       <c r="D33" t="n">
-        <v>12.97342203730459</v>
+        <v>10.87275857367339</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>56.82773963246282</v>
+        <v>58.44648049601607</v>
       </c>
       <c r="D34" t="n">
-        <v>13.07746242946745</v>
+        <v>11.99440244620834</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>59.05795424807724</v>
+        <v>54.94218522568369</v>
       </c>
       <c r="D35" t="n">
-        <v>12.49328107268503</v>
+        <v>13.3310505781488</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>58.17214744188284</v>
+        <v>55.80178990659262</v>
       </c>
       <c r="D36" t="n">
-        <v>13.27319736188993</v>
+        <v>11.80794711654752</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>53.04862138551843</v>
+        <v>56.00314926365412</v>
       </c>
       <c r="D37" t="n">
-        <v>11.39132189708941</v>
+        <v>13.95779243424512</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.3690325681675</v>
+        <v>52.57978346461378</v>
       </c>
       <c r="D38" t="n">
-        <v>13.61825832003517</v>
+        <v>12.02419424833241</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.01885903897229</v>
+        <v>52.70962151319637</v>
       </c>
       <c r="D39" t="n">
-        <v>14.59126215559315</v>
+        <v>12.64258403990754</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.48027954772751</v>
+        <v>52.11764291505519</v>
       </c>
       <c r="D40" t="n">
-        <v>13.80240216513597</v>
+        <v>14.0253802049318</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.51797515182234</v>
+        <v>49.87944587351594</v>
       </c>
       <c r="D41" t="n">
-        <v>13.43051594426634</v>
+        <v>12.59864663172181</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.45955977743427</v>
+        <v>49.04143955093079</v>
       </c>
       <c r="D42" t="n">
-        <v>11.27997786585215</v>
+        <v>11.22091676061275</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.17813028395953</v>
+        <v>47.35192516794405</v>
       </c>
       <c r="D43" t="n">
-        <v>13.28900113871145</v>
+        <v>12.57780535002296</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.6792492450215</v>
+        <v>48.99026049984666</v>
       </c>
       <c r="D44" t="n">
-        <v>12.38000129174479</v>
+        <v>13.16677981665785</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.10242144207726</v>
+        <v>48.19756054668535</v>
       </c>
       <c r="D45" t="n">
-        <v>13.23185804190092</v>
+        <v>12.99908523910004</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.38419806665105</v>
+        <v>42.82827123216004</v>
       </c>
       <c r="D46" t="n">
-        <v>14.53509452573575</v>
+        <v>11.24676339603174</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.91668478482031</v>
+        <v>42.94224478482639</v>
       </c>
       <c r="D47" t="n">
-        <v>12.37363158325489</v>
+        <v>12.58139929726869</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.28112920666968</v>
+        <v>43.30850996361683</v>
       </c>
       <c r="D48" t="n">
-        <v>12.22635050325793</v>
+        <v>11.21111164299749</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.39994397633811</v>
+        <v>43.86967900775124</v>
       </c>
       <c r="D49" t="n">
-        <v>10.43839149120492</v>
+        <v>13.12595000147644</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.63172882660567</v>
+        <v>42.98431022701542</v>
       </c>
       <c r="D50" t="n">
-        <v>14.44522720372509</v>
+        <v>12.67913338948422</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.56327243610742</v>
+        <v>40.67081371350995</v>
       </c>
       <c r="D51" t="n">
-        <v>12.31957571730796</v>
+        <v>13.85178077598873</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>36.71389187277531</v>
+        <v>40.69838535596116</v>
       </c>
       <c r="D52" t="n">
-        <v>11.94303949989064</v>
+        <v>12.69298196875993</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.95191970641245</v>
+        <v>35.21227769196268</v>
       </c>
       <c r="D53" t="n">
-        <v>13.53790733430786</v>
+        <v>14.03911949196347</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.34361909295016</v>
+        <v>40.33035221754004</v>
       </c>
       <c r="D54" t="n">
-        <v>11.50071657141339</v>
+        <v>12.07778317793155</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.78588477798635</v>
+        <v>37.05330949704928</v>
       </c>
       <c r="D55" t="n">
-        <v>12.70861015150081</v>
+        <v>13.82954649866662</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.11921600690745</v>
+        <v>36.47853271041198</v>
       </c>
       <c r="D56" t="n">
-        <v>13.40501117090639</v>
+        <v>15.45916879529649</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.07047576300554</v>
+        <v>34.04612358260146</v>
       </c>
       <c r="D57" t="n">
-        <v>12.07066919305797</v>
+        <v>14.11294839601659</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.72675911000969</v>
+        <v>34.07318349469065</v>
       </c>
       <c r="D58" t="n">
-        <v>13.36660835698181</v>
+        <v>13.27816799240842</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.08504983956908</v>
+        <v>31.2517991381341</v>
       </c>
       <c r="D59" t="n">
-        <v>12.93700283023412</v>
+        <v>13.26618619371884</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>35.86441154464316</v>
+        <v>31.24589456612305</v>
       </c>
       <c r="D60" t="n">
-        <v>14.45522724635708</v>
+        <v>11.26055306097694</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.02140772946364</v>
+        <v>30.967296405216</v>
       </c>
       <c r="D61" t="n">
-        <v>14.56972325235454</v>
+        <v>12.86638491779541</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>28.91932771858786</v>
+        <v>30.32228561985306</v>
       </c>
       <c r="D62" t="n">
-        <v>13.5610189151809</v>
+        <v>14.15707737926106</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.07434315595471</v>
+        <v>28.75429909457459</v>
       </c>
       <c r="D63" t="n">
-        <v>14.29108438277734</v>
+        <v>14.12312626518365</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>30.40557953518022</v>
+        <v>27.56629628573876</v>
       </c>
       <c r="D64" t="n">
-        <v>13.48405945871545</v>
+        <v>13.33547753934603</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.4851607120913</v>
+        <v>24.90620523968265</v>
       </c>
       <c r="D65" t="n">
-        <v>12.66061429491103</v>
+        <v>15.74744376444476</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.33872573508319</v>
+        <v>26.06959256721523</v>
       </c>
       <c r="D66" t="n">
-        <v>12.54523628351484</v>
+        <v>14.82004139284442</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>27.49879844096069</v>
+        <v>23.88103068199848</v>
       </c>
       <c r="D67" t="n">
-        <v>13.31879155144996</v>
+        <v>13.64649495738711</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.85485919500331</v>
+        <v>23.54022242169615</v>
       </c>
       <c r="D68" t="n">
-        <v>13.06202134578956</v>
+        <v>11.94201720165561</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.29524604715678</v>
+        <v>24.78897487173785</v>
       </c>
       <c r="D69" t="n">
-        <v>13.23765096241712</v>
+        <v>13.35295405700897</v>
       </c>
     </row>
   </sheetData>
